--- a/Datasets/UCD_EngArch_Path_Architecture_UG_Modules.xlsx
+++ b/Datasets/UCD_EngArch_Path_Architecture_UG_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\SATLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEB9E96-7431-461B-89C9-F42D4C4558CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE02348-1132-4028-8C02-4AAF01E343DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C7146B4A-4439-46E0-B60E-DB05B9DBCCC1}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="I19:J19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datasets/UCD_EngArch_Path_Architecture_UG_Modules.xlsx
+++ b/Datasets/UCD_EngArch_Path_Architecture_UG_Modules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\SATLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanh\Documents\GitHub\ChatGPTAssessment\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE02348-1132-4028-8C02-4AAF01E343DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C55FC4-6713-47C8-98A5-231078E6FE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C7146B4A-4439-46E0-B60E-DB05B9DBCCC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7146B4A-4439-46E0-B60E-DB05B9DBCCC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
   <si>
     <t>Module</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>ARCT30100</t>
+  </si>
+  <si>
+    <t>ARCT20570</t>
   </si>
 </sst>
 </file>
@@ -188,9 +191,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +510,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J17" sqref="J17:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,652 +519,652 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
         <v>15</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12">
         <v>15</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
         <v>15</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="1">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="1">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18">
         <v>15</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="1">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1">
-        <v>5</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22">
         <v>15</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="1">
-        <v>5</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="1">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="1">
-        <v>5</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Datasets/UCD_EngArch_Path_Architecture_UG_Modules.xlsx
+++ b/Datasets/UCD_EngArch_Path_Architecture_UG_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanh\Documents\GitHub\ChatGPTAssessment\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C55FC4-6713-47C8-98A5-231078E6FE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680FDCFD-8402-4730-93E7-C9D1D255EF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7146B4A-4439-46E0-B60E-DB05B9DBCCC1}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:M26"/>
+      <selection activeCell="G25" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
